--- a/public/excel/questions_mo2.xlsx
+++ b/public/excel/questions_mo2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>what ??</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +466,214 @@
       </c>
       <c r="H2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
